--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatH201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="49">
   <si>
     <t>TC</t>
   </si>
@@ -161,12 +166,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,6 +302,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -341,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,9 +385,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,6 +437,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,22 +629,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -627,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -641,7 +686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -655,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -676,24 +721,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -716,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -733,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -750,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -767,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -784,7 +829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -801,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -818,7 +863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -835,25 +880,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
   </sheetData>
@@ -863,29 +908,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="49.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -926,7 +971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>46</v>
       </c>
@@ -961,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>46</v>
       </c>
@@ -996,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
@@ -1031,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
@@ -1066,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>46</v>
       </c>
@@ -1101,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
@@ -1136,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
@@ -1173,8 +1218,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A8" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3:A8" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1182,28 +1227,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
     <col min="10" max="11" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -1247,7 +1292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>46</v>
       </c>
@@ -1270,7 +1315,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>40</v>
@@ -1287,7 +1332,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatH201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="48">
   <si>
     <t>TC</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Payroll Suite WeeklyCatH201718.xlsx</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>TestReportWorksheetNo</t>
@@ -174,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -629,7 +626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -721,7 +718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -908,11 +905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,13 +970,13 @@
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>13</v>
@@ -994,7 +991,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>37</v>
@@ -1008,13 +1005,13 @@
     </row>
     <row r="3" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>13</v>
@@ -1029,7 +1026,7 @@
         <v>39</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>37</v>
@@ -1043,13 +1040,13 @@
     </row>
     <row r="4" spans="1:13" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>13</v>
@@ -1064,7 +1061,7 @@
         <v>39</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>37</v>
@@ -1078,13 +1075,13 @@
     </row>
     <row r="5" spans="1:13" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>13</v>
@@ -1099,7 +1096,7 @@
         <v>39</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>37</v>
@@ -1113,13 +1110,13 @@
     </row>
     <row r="6" spans="1:13" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
@@ -1134,7 +1131,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>37</v>
@@ -1148,13 +1145,13 @@
     </row>
     <row r="7" spans="1:13" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
@@ -1169,7 +1166,7 @@
         <v>39</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>37</v>
@@ -1183,13 +1180,13 @@
     </row>
     <row r="8" spans="1:13" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>13</v>
@@ -1204,7 +1201,7 @@
         <v>39</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>37</v>
@@ -1218,8 +1215,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A3:A8" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A8" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1227,10 +1224,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1280,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1294,13 +1291,13 @@
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>13</v>
@@ -1315,7 +1312,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>40</v>
@@ -1332,7 +1329,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatH201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ProcessPayrollForNIWeekly" sheetId="5" r:id="rId3"/>
     <sheet name="TestReports" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -66,27 +66,6 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -159,13 +138,34 @@
     <t>TestReportWorksheetNo</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Weekly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 411</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 412</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 413</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 414</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 415</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 416</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 417</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NIWCH EMPLOYER</t>
+  </si>
+  <si>
+    <t>NIWCH_Payroll</t>
   </si>
 </sst>
 </file>
@@ -267,9 +267,6 @@
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -284,10 +281,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -657,10 +655,10 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -671,7 +669,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -685,10 +683,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -699,10 +697,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -722,7 +720,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,64 +757,64 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9">
+        <v>8166.08</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9">
+        <v>8166.6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45034.080000000002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="10">
-        <v>8166.08</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="10">
-        <v>8166.6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="10">
-        <v>45034.080000000002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="10">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9">
         <v>45034.6</v>
       </c>
       <c r="D5" t="s">
@@ -827,13 +825,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
+      <c r="A6" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="10">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9">
         <v>45047.08</v>
       </c>
       <c r="D6" t="s">
@@ -844,13 +842,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
+      <c r="A7" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="10">
+        <v>35</v>
+      </c>
+      <c r="C7" s="9">
         <v>45047.6</v>
       </c>
       <c r="D7" t="s">
@@ -861,13 +859,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
+      <c r="A8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="10">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9">
         <v>61360</v>
       </c>
       <c r="D8" t="s">
@@ -908,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,34 +927,34 @@
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>2</v>
@@ -968,246 +966,246 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:13" s="12" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>5</v>
@@ -1215,8 +1213,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A8" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A3:A8" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1227,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,37 +1245,37 @@
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>44</v>
+      <c r="K1" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1289,47 +1287,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>14</v>
+    <row r="2" spans="1:14" s="12" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="G2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="I2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatH201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIWeeklyCat_H" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="5" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="6" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIWeeklyCat_H" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="5"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="48">
   <si>
     <t>TC</t>
   </si>
@@ -172,6 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,58 +242,58 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -309,10 +310,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -347,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +505,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -513,13 +514,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -529,7 +530,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -538,7 +539,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -547,7 +548,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -557,12 +558,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -593,7 +594,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -612,7 +613,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -624,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -633,10 +634,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -710,13 +711,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -725,12 +726,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,13 +898,13 @@
       <c r="C16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -912,20 +913,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -966,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="52.15" r="2" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>46</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="54" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>46</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="53.45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="50.45" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>46</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="46.9" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>46</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="50.45" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>46</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="49.15" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>46</v>
       </c>
@@ -1213,16 +1214,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A3:A8" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A3:A8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1231,19 +1232,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="52.15" r="2" s="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>46</v>
       </c>
@@ -1327,9 +1328,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatH201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="48">
   <si>
     <t>TC</t>
   </si>
